--- a/Bus_Booking/Dat_Ve_Xe_Khach.xlsx
+++ b/Bus_Booking/Dat_Ve_Xe_Khach.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aile\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Junior\Git\Dat_Ve_Xe_Khach\Bus_Booking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E530D2A-7C38-4858-92B0-D968F213D0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B16DB7C-3C9F-4980-8EBB-44EBB7C4A1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C09623A-A02A-4DFB-923B-F792C92F998F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="91">
   <si>
     <t>Hệ Thống Đặt Vé Xe Khách Online</t>
   </si>
@@ -176,7 +176,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -192,7 +192,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -229,7 +229,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,7 +245,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -261,7 +261,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,7 +277,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,7 +293,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>Khách hàng có thể tra cứu lịch sử đặt vé, thanh toán.</t>
+  </si>
+  <si>
+    <t>Khách hàng có thể đăng nhập và đăng ký tài khoản</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -413,7 +416,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -421,7 +424,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -429,7 +432,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -437,7 +440,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -445,7 +448,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -453,7 +456,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -461,7 +464,7 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -469,20 +472,20 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -624,10 +627,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,16 +650,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,60 +967,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D450399C-C52B-41A2-A5C9-190C77CE57CD}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E36" sqref="E36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" customWidth="1"/>
-    <col min="4" max="4" width="3.77734375" customWidth="1"/>
-    <col min="5" max="5" width="39.21875" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1"/>
-    <col min="8" max="8" width="3.77734375" customWidth="1"/>
-    <col min="9" max="9" width="30.21875" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="33.796875" customWidth="1"/>
+    <col min="4" max="4" width="3.796875" customWidth="1"/>
+    <col min="5" max="5" width="39.19921875" customWidth="1"/>
+    <col min="6" max="6" width="19.796875" customWidth="1"/>
+    <col min="7" max="7" width="37.296875" customWidth="1"/>
+    <col min="8" max="8" width="3.796875" customWidth="1"/>
+    <col min="9" max="9" width="30.19921875" customWidth="1"/>
+    <col min="10" max="10" width="26.69921875" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="1.21875" customWidth="1"/>
+    <col min="12" max="12" width="1.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -1050,7 +1053,7 @@
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1080,7 +1083,7 @@
       </c>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1110,7 +1113,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1140,7 +1143,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1170,7 +1173,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1200,7 +1203,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>61</v>
       </c>
@@ -1221,7 +1224,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>62</v>
       </c>
@@ -1242,7 +1245,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1254,7 +1257,7 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>67</v>
       </c>
@@ -1266,7 +1269,7 @@
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>79</v>
       </c>
@@ -1278,7 +1281,7 @@
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1293,21 +1296,21 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="I15" s="11" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="I15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -1340,7 +1343,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -1370,7 +1373,7 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1400,7 +1403,7 @@
       </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1430,7 +1433,7 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1460,7 +1463,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1481,7 +1484,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1493,10 +1496,10 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1511,16 +1514,16 @@
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="E25" s="14" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="E25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -1532,13 +1535,13 @@
       <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
@@ -1548,13 +1551,13 @@
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -1564,13 +1567,13 @@
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -1580,13 +1583,13 @@
       <c r="C29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -1596,13 +1599,13 @@
       <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
@@ -1612,13 +1615,13 @@
       <c r="C31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
@@ -1628,41 +1631,48 @@
       <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E33" s="17" t="s">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E34" s="16" t="s">
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E35" s="18" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E34:G34"/>
+  <mergeCells count="19">
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:G2"/>
@@ -1670,11 +1680,12 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bus_Booking/Dat_Ve_Xe_Khach.xlsx
+++ b/Bus_Booking/Dat_Ve_Xe_Khach.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Junior\Git\Dat_Ve_Xe_Khach\Bus_Booking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online\Database Management System\TH\Git\Dat_Ve_Xe_Khach\Bus_Booking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B16DB7C-3C9F-4980-8EBB-44EBB7C4A1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2452FFCA-900A-4E28-B186-C3B9C80E2C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C09623A-A02A-4DFB-923B-F792C92F998F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="108">
   <si>
     <t>Hệ Thống Đặt Vé Xe Khách Online</t>
   </si>
@@ -176,7 +176,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -192,7 +192,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -229,7 +229,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,7 +245,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -261,7 +261,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,7 +277,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,7 +293,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -399,16 +399,67 @@
   <si>
     <t>Khách hàng có thể đăng nhập và đăng ký tài khoản</t>
   </si>
+  <si>
+    <t>Chức năng</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>Truy vấn bảng</t>
+  </si>
+  <si>
+    <t>Sửa dữ liệu trên từng bảng</t>
+  </si>
+  <si>
+    <t>Thêm dữ liệu trên từng bảng</t>
+  </si>
+  <si>
+    <t>Xóa dữ liệu trên từng bảng</t>
+  </si>
+  <si>
+    <t>Đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>Khôi phục mật khẩu</t>
+  </si>
+  <si>
+    <t>Tìm kiếm dữ liệu trên từng bảng</t>
+  </si>
+  <si>
+    <t>Truy vấn Lịch trình, thêm đặt vé và thanh toán Lịch trình</t>
+  </si>
+  <si>
+    <t>Truy vấn, sửa thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Giống</t>
+  </si>
+  <si>
+    <t>Đăng nhập tài khoản</t>
+  </si>
+  <si>
+    <t>Tra cứu lịch sử đặt vé cá nhân</t>
+  </si>
+  <si>
+    <t>Sắp xếp giá lịch trình theo thứ tự tăng hoặc giảm</t>
+  </si>
+  <si>
+    <t>Thống kê doanh thu hàng tháng theo năm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -416,7 +467,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -424,7 +475,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -432,7 +483,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -440,7 +491,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -448,7 +499,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -456,7 +507,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -464,7 +515,7 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -472,25 +523,32 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +594,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -627,18 +691,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,8 +715,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,27 +1039,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D450399C-C52B-41A2-A5C9-190C77CE57CD}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:G36"/>
+    <sheetView tabSelected="1" topLeftCell="F15" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="3" max="3" width="33.796875" customWidth="1"/>
-    <col min="4" max="4" width="3.796875" customWidth="1"/>
-    <col min="5" max="5" width="39.19921875" customWidth="1"/>
-    <col min="6" max="6" width="19.796875" customWidth="1"/>
-    <col min="7" max="7" width="37.296875" customWidth="1"/>
-    <col min="8" max="8" width="3.796875" customWidth="1"/>
-    <col min="9" max="9" width="30.19921875" customWidth="1"/>
-    <col min="10" max="10" width="26.69921875" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" customWidth="1"/>
+    <col min="4" max="4" width="3.77734375" customWidth="1"/>
+    <col min="5" max="5" width="39.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3.77734375" customWidth="1"/>
+    <col min="9" max="9" width="35.21875" customWidth="1"/>
+    <col min="10" max="10" width="47" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="1.19921875" customWidth="1"/>
+    <col min="12" max="12" width="1.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1006,21 +1076,21 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="E2" s="14" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -1053,7 +1123,7 @@
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1083,7 +1153,7 @@
       </c>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1113,7 +1183,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1143,7 +1213,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1173,7 +1243,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1203,7 +1273,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>61</v>
       </c>
@@ -1224,7 +1294,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>62</v>
       </c>
@@ -1245,7 +1315,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1257,7 +1327,7 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I12" s="2" t="s">
         <v>67</v>
       </c>
@@ -1269,7 +1339,7 @@
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I13" s="2" t="s">
         <v>79</v>
       </c>
@@ -1281,7 +1351,7 @@
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1296,21 +1366,21 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="I15" s="15" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="I15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -1343,7 +1413,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -1373,7 +1443,7 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1403,7 +1473,7 @@
       </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1433,7 +1503,7 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1463,7 +1533,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1484,7 +1554,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1496,10 +1566,10 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1514,16 +1584,21 @@
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="E25" s="9" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="E25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="I25" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -1535,13 +1610,22 @@
       <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="I26" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
@@ -1551,13 +1635,22 @@
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="I27" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -1567,13 +1660,20 @@
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="I28" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -1583,13 +1683,20 @@
       <c r="C29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="I29" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -1599,13 +1706,20 @@
       <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="I30" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
@@ -1615,13 +1729,20 @@
       <c r="C31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="I31" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
@@ -1631,48 +1752,63 @@
       <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="18" t="s">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="I32" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E33" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="12" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E34" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="11" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E35" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="11" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E36" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
+  <mergeCells count="21">
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:G2"/>
@@ -1680,6 +1816,12 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E28:G28"/>

--- a/Bus_Booking/Dat_Ve_Xe_Khach.xlsx
+++ b/Bus_Booking/Dat_Ve_Xe_Khach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online\Database Management System\TH\Git\Dat_Ve_Xe_Khach\Bus_Booking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2452FFCA-900A-4E28-B186-C3B9C80E2C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7128FC5A-89EC-4F70-A823-617511DC1A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C09623A-A02A-4DFB-923B-F792C92F998F}"/>
   </bookViews>
@@ -679,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -691,19 +691,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,14 +714,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,7 +1041,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F15" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,21 +1077,21 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -1366,21 +1367,21 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="I15" s="14" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="I15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -1584,21 +1585,21 @@
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="E25" s="17" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="E25" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="I25" s="17" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="I25" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -1610,18 +1611,18 @@
       <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="I26" s="20" t="s">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="I26" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1635,18 +1636,18 @@
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="I27" s="18" t="s">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="I27" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="J27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1660,18 +1661,18 @@
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="I28" s="18" t="s">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="I28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K28" s="18"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -1683,18 +1684,18 @@
       <c r="C29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="I29" s="18" t="s">
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="I29" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="K29" s="18"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -1706,18 +1707,18 @@
       <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="I30" s="18" t="s">
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="I30" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K30" s="18"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -1729,18 +1730,18 @@
       <c r="C31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="I31" s="18" t="s">
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="I31" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="18"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -1752,70 +1753,61 @@
       <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="I32" s="19" t="s">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="I32" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="K32" s="18"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E15:G15"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="E26:G26"/>
@@ -1828,6 +1820,15 @@
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bus_Booking/Dat_Ve_Xe_Khach.xlsx
+++ b/Bus_Booking/Dat_Ve_Xe_Khach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online\Database Management System\TH\Git\Dat_Ve_Xe_Khach\Bus_Booking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7128FC5A-89EC-4F70-A823-617511DC1A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E796353-5B18-4CE1-BB2B-0130D8073B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C09623A-A02A-4DFB-923B-F792C92F998F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
   <si>
     <t>Hệ Thống Đặt Vé Xe Khách Online</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Khóa ngoại đặt vé (id), auto_increment.</t>
-  </si>
-  <si>
-    <t>t_tt (Tiền khách thanh toán)</t>
   </si>
   <si>
     <t>giamgia_tt (Giảm giá theo %)</t>
@@ -679,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -723,7 +720,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D450399C-C52B-41A2-A5C9-190C77CE57CD}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F15" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,17 +1074,17 @@
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="E2" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -1192,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -1252,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -1276,16 +1272,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>18</v>
@@ -1297,52 +1293,52 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>19</v>
@@ -1368,17 +1364,17 @@
     </row>
     <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="I15" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="17"/>
@@ -1464,7 +1460,7 @@
         <v>41</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>30</v>
@@ -1488,13 +1484,13 @@
         <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>36</v>
@@ -1512,19 +1508,19 @@
         <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>30</v>
@@ -1542,16 +1538,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="L21" s="6"/>
     </row>
@@ -1586,17 +1573,17 @@
     </row>
     <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="E25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="I25" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -1612,23 +1599,23 @@
         <v>5</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="I26" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="K26" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -1637,23 +1624,23 @@
         <v>8</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="I27" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
@@ -1662,90 +1649,90 @@
         <v>9</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="I28" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="I29" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="I30" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="I31" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
@@ -1754,21 +1741,21 @@
         <v>9</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="I32" s="21" t="s">
-        <v>107</v>
+      <c r="I32" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E33" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
@@ -1778,7 +1765,7 @@
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E34" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
@@ -1788,7 +1775,7 @@
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E35" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
@@ -1798,7 +1785,7 @@
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E36" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>

--- a/Bus_Booking/Dat_Ve_Xe_Khach.xlsx
+++ b/Bus_Booking/Dat_Ve_Xe_Khach.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online\Database Management System\TH\Git\Dat_Ve_Xe_Khach\Bus_Booking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aile\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E796353-5B18-4CE1-BB2B-0130D8073B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C8D1B9-FAEB-4320-83C8-0ABC6FAD4C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C09623A-A02A-4DFB-923B-F792C92F998F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="111">
   <si>
     <t>Hệ Thống Đặt Vé Xe Khách Online</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Khóa ngoại đặt vé (id), auto_increment.</t>
+  </si>
+  <si>
+    <t>t_tt (Tiền khách thanh toán)</t>
   </si>
   <si>
     <t>giamgia_tt (Giảm giá theo %)</t>
@@ -251,22 +254,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Lich_Trinh (Lịch Trình) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*****</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Dat_Ve (Đặt Vé) </t>
     </r>
     <r>
@@ -446,6 +433,44 @@
   </si>
   <si>
     <t>Thống kê doanh thu hàng tháng theo năm</t>
+  </si>
+  <si>
+    <t>id_cnlt</t>
+  </si>
+  <si>
+    <t>cn_lt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ChoNgoi_LichTrinh (Chỗ ngồi lịch trình) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*****(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lich_Trinh (Lịch Trình) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*****(1)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1034,17 +1059,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D450399C-C52B-41A2-A5C9-190C77CE57CD}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
     <col min="4" max="4" width="3.77734375" customWidth="1"/>
     <col min="5" max="5" width="39.21875" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" customWidth="1"/>
@@ -1074,7 +1099,7 @@
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1084,7 +1109,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -1364,7 +1389,7 @@
     </row>
     <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1374,7 +1399,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="I15" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="17"/>
@@ -1484,13 +1509,13 @@
         <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>36</v>
@@ -1511,13 +1536,13 @@
         <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>70</v>
@@ -1539,6 +1564,15 @@
       </c>
       <c r="C21" s="1" t="s">
         <v>73</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="L21" s="6"/>
     </row>
@@ -1573,7 +1607,7 @@
     </row>
     <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1615,7 +1649,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -1640,7 +1674,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
@@ -1663,7 +1697,7 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>36</v>
@@ -1686,7 +1720,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>30</v>
@@ -1709,7 +1743,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
@@ -1732,7 +1766,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
@@ -1753,7 +1787,7 @@
       </c>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E33" s="20" t="s">
         <v>86</v>
       </c>
@@ -1763,7 +1797,12 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="A34" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="E34" s="19" t="s">
         <v>87</v>
       </c>
@@ -1773,7 +1812,16 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E35" s="18" t="s">
         <v>88</v>
       </c>
@@ -1783,7 +1831,16 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E36" s="18" t="s">
         <v>89</v>
       </c>
@@ -1793,8 +1850,30 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="E26:G26"/>
@@ -1807,6 +1886,7 @@
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="E34:G34"/>
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="A1:K1"/>
